--- a/Code/Results/Cases/Case_2_201/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_201/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012852050009715</v>
+        <v>1.058043467572119</v>
       </c>
       <c r="D2">
-        <v>1.030589212054517</v>
+        <v>1.059176358256264</v>
       </c>
       <c r="E2">
-        <v>1.027794199399238</v>
+        <v>1.062955413596262</v>
       </c>
       <c r="F2">
-        <v>1.037549454875291</v>
+        <v>1.07167612580016</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048215277360065</v>
+        <v>1.043069754347559</v>
       </c>
       <c r="J2">
-        <v>1.034655037792098</v>
+        <v>1.063036740036247</v>
       </c>
       <c r="K2">
-        <v>1.041638225251229</v>
+        <v>1.061906576414678</v>
       </c>
       <c r="L2">
-        <v>1.038879434937396</v>
+        <v>1.065675359446925</v>
       </c>
       <c r="M2">
-        <v>1.048509325086095</v>
+        <v>1.074372665818162</v>
       </c>
       <c r="N2">
-        <v>1.036124366622354</v>
+        <v>1.064546374139117</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020178679478763</v>
+        <v>1.059522906613098</v>
       </c>
       <c r="D3">
-        <v>1.035980135373221</v>
+        <v>1.060277485158076</v>
       </c>
       <c r="E3">
-        <v>1.0332505508173</v>
+        <v>1.064128182012128</v>
       </c>
       <c r="F3">
-        <v>1.04335498427878</v>
+        <v>1.072899347373241</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050191623215337</v>
+        <v>1.043387412080061</v>
       </c>
       <c r="J3">
-        <v>1.040133970426712</v>
+        <v>1.064166342597442</v>
       </c>
       <c r="K3">
-        <v>1.04617244601566</v>
+        <v>1.062821155075819</v>
       </c>
       <c r="L3">
-        <v>1.043474952320646</v>
+        <v>1.066662145884557</v>
       </c>
       <c r="M3">
-        <v>1.05346162836447</v>
+        <v>1.075411482645427</v>
       </c>
       <c r="N3">
-        <v>1.041611079969752</v>
+        <v>1.065677580865516</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024785019373802</v>
+        <v>1.060479212380983</v>
       </c>
       <c r="D4">
-        <v>1.03937302939391</v>
+        <v>1.060989010158819</v>
       </c>
       <c r="E4">
-        <v>1.036694750380845</v>
+        <v>1.064886973367005</v>
       </c>
       <c r="F4">
-        <v>1.047014433079151</v>
+        <v>1.073690384689394</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051422765183423</v>
+        <v>1.043591198644758</v>
       </c>
       <c r="J4">
-        <v>1.043575290072454</v>
+        <v>1.064895853776201</v>
       </c>
       <c r="K4">
-        <v>1.049018391473178</v>
+        <v>1.063411380511489</v>
       </c>
       <c r="L4">
-        <v>1.046369589770525</v>
+        <v>1.06730001581244</v>
       </c>
       <c r="M4">
-        <v>1.056576709761349</v>
+        <v>1.076082627804968</v>
       </c>
       <c r="N4">
-        <v>1.045057286684116</v>
+        <v>1.066408128033825</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026691049502189</v>
+        <v>1.0608810121141</v>
       </c>
       <c r="D5">
-        <v>1.040777684876242</v>
+        <v>1.061287904445094</v>
       </c>
       <c r="E5">
-        <v>1.038123032328009</v>
+        <v>1.065205955626816</v>
       </c>
       <c r="F5">
-        <v>1.048530775886158</v>
+        <v>1.074022827826936</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051929384035474</v>
+        <v>1.043676450567313</v>
       </c>
       <c r="J5">
-        <v>1.044998376368552</v>
+        <v>1.065202205078096</v>
       </c>
       <c r="K5">
-        <v>1.050194758273585</v>
+        <v>1.063659138957427</v>
       </c>
       <c r="L5">
-        <v>1.047568501917151</v>
+        <v>1.067568024016308</v>
       </c>
       <c r="M5">
-        <v>1.057865922452151</v>
+        <v>1.076364531597515</v>
       </c>
       <c r="N5">
-        <v>1.046482393925984</v>
+        <v>1.066714914389708</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027009340746759</v>
+        <v>1.060948462668481</v>
       </c>
       <c r="D6">
-        <v>1.041012290198202</v>
+        <v>1.06133807666938</v>
       </c>
       <c r="E6">
-        <v>1.03836172285746</v>
+        <v>1.065259513431269</v>
       </c>
       <c r="F6">
-        <v>1.048784113300065</v>
+        <v>1.074078640198969</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05201381806429</v>
+        <v>1.043690740149351</v>
       </c>
       <c r="J6">
-        <v>1.045235966378714</v>
+        <v>1.065253623271934</v>
       </c>
       <c r="K6">
-        <v>1.050391126202833</v>
+        <v>1.063700716946521</v>
       </c>
       <c r="L6">
-        <v>1.047768774648446</v>
+        <v>1.06761301491516</v>
       </c>
       <c r="M6">
-        <v>1.058081221143154</v>
+        <v>1.076411850169235</v>
       </c>
       <c r="N6">
-        <v>1.046720321341213</v>
+        <v>1.066766405603278</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024810605414976</v>
+        <v>1.060484582149932</v>
       </c>
       <c r="D7">
-        <v>1.039391882384022</v>
+        <v>1.060993004901867</v>
       </c>
       <c r="E7">
-        <v>1.036713911095747</v>
+        <v>1.064891235673757</v>
       </c>
       <c r="F7">
-        <v>1.04703477985202</v>
+        <v>1.073694827234894</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051429577101813</v>
+        <v>1.043592339433736</v>
       </c>
       <c r="J7">
-        <v>1.043594396767485</v>
+        <v>1.064899948569334</v>
       </c>
       <c r="K7">
-        <v>1.049034187736225</v>
+        <v>1.063414692531155</v>
       </c>
       <c r="L7">
-        <v>1.046385679239223</v>
+        <v>1.06730359754651</v>
       </c>
       <c r="M7">
-        <v>1.056594015006918</v>
+        <v>1.07608639557863</v>
       </c>
       <c r="N7">
-        <v>1.045076420512845</v>
+        <v>1.066412228642034</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015357043216336</v>
+        <v>1.058543659480931</v>
       </c>
       <c r="D8">
-        <v>1.032431554183723</v>
+        <v>1.059548693654761</v>
       </c>
       <c r="E8">
-        <v>1.029656739226103</v>
+        <v>1.063351771935848</v>
       </c>
       <c r="F8">
-        <v>1.039532296723781</v>
+        <v>1.072089618318912</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048893356733094</v>
+        <v>1.043177473258414</v>
       </c>
       <c r="J8">
-        <v>1.036528959052323</v>
+        <v>1.063418790418681</v>
       </c>
       <c r="K8">
-        <v>1.043189433277053</v>
+        <v>1.062215989103834</v>
       </c>
       <c r="L8">
-        <v>1.040449434194469</v>
+        <v>1.066008984024401</v>
       </c>
       <c r="M8">
-        <v>1.05020213530542</v>
+        <v>1.074723955761611</v>
       </c>
       <c r="N8">
-        <v>1.038000949065711</v>
+        <v>1.064928967076916</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.997583513233556</v>
+        <v>1.055115659350803</v>
       </c>
       <c r="D9">
-        <v>1.019380663963894</v>
+        <v>1.056995998177136</v>
       </c>
       <c r="E9">
-        <v>1.016508456927037</v>
+        <v>1.060638395509266</v>
       </c>
       <c r="F9">
-        <v>1.02551094463238</v>
+        <v>1.069257296271171</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044036125103744</v>
+        <v>1.042432897701122</v>
       </c>
       <c r="J9">
-        <v>1.023221893408772</v>
+        <v>1.060797762692059</v>
       </c>
       <c r="K9">
-        <v>1.032166938752088</v>
+        <v>1.060091571883175</v>
       </c>
       <c r="L9">
-        <v>1.029339255936158</v>
+        <v>1.063722640320496</v>
       </c>
       <c r="M9">
-        <v>1.038203252875569</v>
+        <v>1.072315069232444</v>
       </c>
       <c r="N9">
-        <v>1.024674985862604</v>
+        <v>1.062304217190285</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9848513215133041</v>
+        <v>1.052824681635781</v>
       </c>
       <c r="D10">
-        <v>1.010065476127737</v>
+        <v>1.055288861227694</v>
       </c>
       <c r="E10">
-        <v>1.007184969309169</v>
+        <v>1.058828871258022</v>
       </c>
       <c r="F10">
-        <v>1.015535745997307</v>
+        <v>1.067366358132313</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040501366789128</v>
+        <v>1.041927340497608</v>
       </c>
       <c r="J10">
-        <v>1.01367913542658</v>
+        <v>1.059042730786361</v>
       </c>
       <c r="K10">
-        <v>1.024255342750321</v>
+        <v>1.058666929564215</v>
       </c>
       <c r="L10">
-        <v>1.021425697484221</v>
+        <v>1.062194839933775</v>
       </c>
       <c r="M10">
-        <v>1.029630051098794</v>
+        <v>1.070703508563864</v>
       </c>
       <c r="N10">
-        <v>1.015118676069507</v>
+        <v>1.060546692937977</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9790939266934222</v>
+        <v>1.051831241636216</v>
       </c>
       <c r="D11">
-        <v>1.005863820838565</v>
+        <v>1.054548338710882</v>
       </c>
       <c r="E11">
-        <v>1.002995147431582</v>
+        <v>1.058045144068712</v>
       </c>
       <c r="F11">
-        <v>1.011044503339257</v>
+        <v>1.066546867648377</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038891190188963</v>
+        <v>1.041706235106997</v>
       </c>
       <c r="J11">
-        <v>1.009363048356059</v>
+        <v>1.05828090273851</v>
       </c>
       <c r="K11">
-        <v>1.020675994892279</v>
+        <v>1.058048015544267</v>
       </c>
       <c r="L11">
-        <v>1.017860799843432</v>
+        <v>1.0615324014878</v>
       </c>
       <c r="M11">
-        <v>1.025761099443737</v>
+        <v>1.070004304105201</v>
       </c>
       <c r="N11">
-        <v>1.010796459660285</v>
+        <v>1.059783783006915</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9769152662835048</v>
+        <v>1.051462011519285</v>
       </c>
       <c r="D12">
-        <v>1.004275704645824</v>
+        <v>1.05427307309035</v>
       </c>
       <c r="E12">
-        <v>1.001413946347282</v>
+        <v>1.057754000684902</v>
       </c>
       <c r="F12">
-        <v>1.009348185419526</v>
+        <v>1.066242362778148</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038280237684636</v>
+        <v>1.041623775239559</v>
       </c>
       <c r="J12">
-        <v>1.007729797048193</v>
+        <v>1.057997637174559</v>
       </c>
       <c r="K12">
-        <v>1.019321444809263</v>
+        <v>1.057817813752252</v>
       </c>
       <c r="L12">
-        <v>1.016514107419897</v>
+        <v>1.061286205251705</v>
       </c>
       <c r="M12">
-        <v>1.024298453973216</v>
+        <v>1.069744376011139</v>
       </c>
       <c r="N12">
-        <v>1.009160888948225</v>
+        <v>1.059500115173372</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9773844707786578</v>
+        <v>1.05154122280686</v>
       </c>
       <c r="D13">
-        <v>1.004617640295076</v>
+        <v>1.054332127734403</v>
       </c>
       <c r="E13">
-        <v>1.00175428108418</v>
+        <v>1.057816453442727</v>
       </c>
       <c r="F13">
-        <v>1.009713360599656</v>
+        <v>1.066307685134299</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03841188675905</v>
+        <v>1.041641478186867</v>
       </c>
       <c r="J13">
-        <v>1.008081537622982</v>
+        <v>1.058058411746544</v>
       </c>
       <c r="K13">
-        <v>1.019613166564238</v>
+        <v>1.057867206889708</v>
       </c>
       <c r="L13">
-        <v>1.016804027603887</v>
+        <v>1.061339021436998</v>
       </c>
       <c r="M13">
-        <v>1.024613387167775</v>
+        <v>1.069800141145079</v>
       </c>
       <c r="N13">
-        <v>1.009513129034975</v>
+        <v>1.05956097605222</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9789146773837745</v>
+        <v>1.051800725535552</v>
       </c>
       <c r="D14">
-        <v>1.005733119846885</v>
+        <v>1.054525589325494</v>
       </c>
       <c r="E14">
-        <v>1.002864965367584</v>
+        <v>1.058021078743066</v>
       </c>
       <c r="F14">
-        <v>1.01090487173216</v>
+        <v>1.066521699441245</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038840956637362</v>
+        <v>1.041699425719966</v>
       </c>
       <c r="J14">
-        <v>1.00922867166024</v>
+        <v>1.05825749383782</v>
       </c>
       <c r="K14">
-        <v>1.020564549899765</v>
+        <v>1.058028993330118</v>
       </c>
       <c r="L14">
-        <v>1.017749952358242</v>
+        <v>1.061512053645963</v>
       </c>
       <c r="M14">
-        <v>1.02564073026311</v>
+        <v>1.069982822723864</v>
       </c>
       <c r="N14">
-        <v>1.010661892134144</v>
+        <v>1.059760340862901</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9798520642141733</v>
+        <v>1.051960584062663</v>
       </c>
       <c r="D15">
-        <v>1.00641669867127</v>
+        <v>1.054644760428203</v>
       </c>
       <c r="E15">
-        <v>1.003545930107857</v>
+        <v>1.058147150771468</v>
       </c>
       <c r="F15">
-        <v>1.011635209788463</v>
+        <v>1.066653546068291</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039103587667276</v>
+        <v>1.041735085135497</v>
       </c>
       <c r="J15">
-        <v>1.009931397507162</v>
+        <v>1.058380116474997</v>
       </c>
       <c r="K15">
-        <v>1.02114735071343</v>
+        <v>1.058128634157572</v>
       </c>
       <c r="L15">
-        <v>1.018329726151682</v>
+        <v>1.061618646235102</v>
       </c>
       <c r="M15">
-        <v>1.026270261312032</v>
+        <v>1.070095350608573</v>
       </c>
       <c r="N15">
-        <v>1.011365615932373</v>
+        <v>1.059883137638288</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9852279930157799</v>
+        <v>1.052890582202707</v>
       </c>
       <c r="D16">
-        <v>1.010340604251075</v>
+        <v>1.055337979085674</v>
       </c>
       <c r="E16">
-        <v>1.00745965367268</v>
+        <v>1.058880880324822</v>
       </c>
       <c r="F16">
-        <v>1.0158300075884</v>
+        <v>1.067420729874706</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040606477247553</v>
+        <v>1.041941968136167</v>
       </c>
       <c r="J16">
-        <v>1.013961503258866</v>
+        <v>1.059093250598958</v>
       </c>
       <c r="K16">
-        <v>1.024489495699908</v>
+        <v>1.05870796165195</v>
       </c>
       <c r="L16">
-        <v>1.021659229489513</v>
+        <v>1.062238784745098</v>
       </c>
       <c r="M16">
-        <v>1.029883353734695</v>
+        <v>1.070749882885175</v>
       </c>
       <c r="N16">
-        <v>1.015401444896503</v>
+        <v>1.060597284494502</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9885324969902786</v>
+        <v>1.053473557136281</v>
       </c>
       <c r="D17">
-        <v>1.01275550054838</v>
+        <v>1.055772460273075</v>
       </c>
       <c r="E17">
-        <v>1.00987242666941</v>
+        <v>1.059341075838753</v>
       </c>
       <c r="F17">
-        <v>1.018413765930461</v>
+        <v>1.067901773175556</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041527284900731</v>
+        <v>1.042071151384358</v>
       </c>
       <c r="J17">
-        <v>1.016438600621688</v>
+        <v>1.059540071819767</v>
       </c>
       <c r="K17">
-        <v>1.026543515857505</v>
+        <v>1.059070811040564</v>
       </c>
       <c r="L17">
-        <v>1.023709542754415</v>
+        <v>1.062627540455301</v>
       </c>
       <c r="M17">
-        <v>1.0321064585652</v>
+        <v>1.071160079332349</v>
       </c>
       <c r="N17">
-        <v>1.017882060021707</v>
+        <v>1.061044740252695</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.990436641221567</v>
+        <v>1.05381345891897</v>
       </c>
       <c r="D18">
-        <v>1.014148008018103</v>
+        <v>1.056025758627349</v>
       </c>
       <c r="E18">
-        <v>1.011265169015352</v>
+        <v>1.05960948188071</v>
       </c>
       <c r="F18">
-        <v>1.019904405976972</v>
+        <v>1.068182290166483</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042056762280994</v>
+        <v>1.042146290034281</v>
       </c>
       <c r="J18">
-        <v>1.017865873621642</v>
+        <v>1.059800513294791</v>
       </c>
       <c r="K18">
-        <v>1.02772691681847</v>
+        <v>1.059282258916903</v>
       </c>
       <c r="L18">
-        <v>1.024892243427734</v>
+        <v>1.062854209357822</v>
       </c>
       <c r="M18">
-        <v>1.033388186193164</v>
+        <v>1.071399206317653</v>
       </c>
       <c r="N18">
-        <v>1.019311359913032</v>
+        <v>1.061305551584487</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9910820469026417</v>
+        <v>1.05392933351483</v>
       </c>
       <c r="D19">
-        <v>1.014620154802526</v>
+        <v>1.056112105373912</v>
       </c>
       <c r="E19">
-        <v>1.011737640145867</v>
+        <v>1.059700998419555</v>
       </c>
       <c r="F19">
-        <v>1.020409953968934</v>
+        <v>1.068277927899877</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042236034536618</v>
+        <v>1.042171874502868</v>
       </c>
       <c r="J19">
-        <v>1.018349624346093</v>
+        <v>1.059889286427446</v>
       </c>
       <c r="K19">
-        <v>1.028127992327986</v>
+        <v>1.059354324045322</v>
       </c>
       <c r="L19">
-        <v>1.025293322749214</v>
+        <v>1.062931483153543</v>
       </c>
       <c r="M19">
-        <v>1.033822739666745</v>
+        <v>1.071480719885409</v>
       </c>
       <c r="N19">
-        <v>1.019795797618999</v>
+        <v>1.061394450785173</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9881803900509674</v>
+        <v>1.053411023731414</v>
       </c>
       <c r="D20">
-        <v>1.012498081156049</v>
+        <v>1.05572585773754</v>
       </c>
       <c r="E20">
-        <v>1.009615081327677</v>
+        <v>1.059291703124812</v>
       </c>
       <c r="F20">
-        <v>1.018138267117228</v>
+        <v>1.067850168786742</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041429284691709</v>
+        <v>1.042057313158595</v>
       </c>
       <c r="J20">
-        <v>1.016174666020766</v>
+        <v>1.059492150971294</v>
       </c>
       <c r="K20">
-        <v>1.026324670085151</v>
+        <v>1.059031901040189</v>
       </c>
       <c r="L20">
-        <v>1.023490942192581</v>
+        <v>1.062585839537612</v>
       </c>
       <c r="M20">
-        <v>1.031869502765336</v>
+        <v>1.071116082989243</v>
       </c>
       <c r="N20">
-        <v>1.017617750603379</v>
+        <v>1.060996751351122</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9784652063977044</v>
+        <v>1.051724314643589</v>
       </c>
       <c r="D21">
-        <v>1.005405415063076</v>
+        <v>1.054468625334487</v>
       </c>
       <c r="E21">
-        <v>1.002538601340317</v>
+        <v>1.057960822609483</v>
       </c>
       <c r="F21">
-        <v>1.010554795654084</v>
+        <v>1.066458680621693</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03871496908213</v>
+        <v>1.041682370779077</v>
       </c>
       <c r="J21">
-        <v>1.008891720143794</v>
+        <v>1.058198877134834</v>
       </c>
       <c r="K21">
-        <v>1.020285098771752</v>
+        <v>1.057981359832947</v>
       </c>
       <c r="L21">
-        <v>1.017472038222399</v>
+        <v>1.061461103784208</v>
       </c>
       <c r="M21">
-        <v>1.025338925790457</v>
+        <v>1.069929033447477</v>
       </c>
       <c r="N21">
-        <v>1.010324462107896</v>
+        <v>1.059701640917473</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9721228139460362</v>
+        <v>1.050662524124087</v>
       </c>
       <c r="D22">
-        <v>1.000785965773086</v>
+        <v>1.053676979256915</v>
       </c>
       <c r="E22">
-        <v>0.997944030514108</v>
+        <v>1.057123857107611</v>
       </c>
       <c r="F22">
-        <v>1.005623040964975</v>
+        <v>1.065583160484111</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036933428976194</v>
+        <v>1.041444710983716</v>
       </c>
       <c r="J22">
-        <v>1.004137270808086</v>
+        <v>1.057384071622688</v>
       </c>
       <c r="K22">
-        <v>1.016341868591101</v>
+        <v>1.057319049860723</v>
       </c>
       <c r="L22">
-        <v>1.013556326885064</v>
+        <v>1.060753142907731</v>
       </c>
       <c r="M22">
-        <v>1.021083921316404</v>
+        <v>1.0691814573105</v>
       </c>
       <c r="N22">
-        <v>1.005563260908789</v>
+        <v>1.058885678288041</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.975508479391564</v>
+        <v>1.051225524017569</v>
       </c>
       <c r="D23">
-        <v>1.003250789347248</v>
+        <v>1.054096758503597</v>
       </c>
       <c r="E23">
-        <v>1.000394196202615</v>
+        <v>1.05756756735255</v>
       </c>
       <c r="F23">
-        <v>1.008253799099665</v>
+        <v>1.066047351990863</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037885291818813</v>
+        <v>1.04157088133585</v>
       </c>
       <c r="J23">
-        <v>1.006675207197418</v>
+        <v>1.057816175728172</v>
       </c>
       <c r="K23">
-        <v>1.018446795975117</v>
+        <v>1.057670324176922</v>
       </c>
       <c r="L23">
-        <v>1.015645217495784</v>
+        <v>1.061128522804863</v>
       </c>
       <c r="M23">
-        <v>1.023354435367414</v>
+        <v>1.069577879551536</v>
       </c>
       <c r="N23">
-        <v>1.008104801458898</v>
+        <v>1.059318396030917</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9883395638246693</v>
+        <v>1.053439280310976</v>
       </c>
       <c r="D24">
-        <v>1.012614447370245</v>
+        <v>1.055746915810678</v>
       </c>
       <c r="E24">
-        <v>1.009731409543607</v>
+        <v>1.059314012585714</v>
       </c>
       <c r="F24">
-        <v>1.01826280375682</v>
+        <v>1.067873486797514</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041473590230928</v>
+        <v>1.0420635667116</v>
       </c>
       <c r="J24">
-        <v>1.016293980841885</v>
+        <v>1.059513804902011</v>
       </c>
       <c r="K24">
-        <v>1.026423602273129</v>
+        <v>1.059049483400524</v>
       </c>
       <c r="L24">
-        <v>1.023589759077208</v>
+        <v>1.062604682652553</v>
       </c>
       <c r="M24">
-        <v>1.031976619010858</v>
+        <v>1.071135963456246</v>
       </c>
       <c r="N24">
-        <v>1.01773723486523</v>
+        <v>1.061018436032904</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002323390998656</v>
+        <v>1.056002847242139</v>
       </c>
       <c r="D25">
-        <v>1.022856084847337</v>
+        <v>1.057656857092126</v>
       </c>
       <c r="E25">
-        <v>1.019999675993089</v>
+        <v>1.061339962504402</v>
       </c>
       <c r="F25">
-        <v>1.0292393277577</v>
+        <v>1.06998998398028</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045341268489284</v>
+        <v>1.042626999483657</v>
       </c>
       <c r="J25">
-        <v>1.026772815964167</v>
+        <v>1.061476695779637</v>
       </c>
       <c r="K25">
-        <v>1.035109655948953</v>
+        <v>1.060642244441676</v>
       </c>
       <c r="L25">
-        <v>1.032295257868866</v>
+        <v>1.06431433241251</v>
       </c>
       <c r="M25">
-        <v>1.041400084939595</v>
+        <v>1.07293880322626</v>
       </c>
       <c r="N25">
-        <v>1.028230951135325</v>
+        <v>1.062984114440723</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_201/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_201/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058043467572119</v>
+        <v>1.012852050009715</v>
       </c>
       <c r="D2">
-        <v>1.059176358256264</v>
+        <v>1.030589212054517</v>
       </c>
       <c r="E2">
-        <v>1.062955413596262</v>
+        <v>1.027794199399238</v>
       </c>
       <c r="F2">
-        <v>1.07167612580016</v>
+        <v>1.037549454875291</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043069754347559</v>
+        <v>1.048215277360065</v>
       </c>
       <c r="J2">
-        <v>1.063036740036247</v>
+        <v>1.034655037792097</v>
       </c>
       <c r="K2">
-        <v>1.061906576414678</v>
+        <v>1.041638225251229</v>
       </c>
       <c r="L2">
-        <v>1.065675359446925</v>
+        <v>1.038879434937396</v>
       </c>
       <c r="M2">
-        <v>1.074372665818162</v>
+        <v>1.048509325086095</v>
       </c>
       <c r="N2">
-        <v>1.064546374139117</v>
+        <v>1.036124366622354</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059522906613098</v>
+        <v>1.020178679478763</v>
       </c>
       <c r="D3">
-        <v>1.060277485158076</v>
+        <v>1.035980135373221</v>
       </c>
       <c r="E3">
-        <v>1.064128182012128</v>
+        <v>1.0332505508173</v>
       </c>
       <c r="F3">
-        <v>1.072899347373241</v>
+        <v>1.04335498427878</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043387412080061</v>
+        <v>1.050191623215337</v>
       </c>
       <c r="J3">
-        <v>1.064166342597442</v>
+        <v>1.040133970426713</v>
       </c>
       <c r="K3">
-        <v>1.062821155075819</v>
+        <v>1.04617244601566</v>
       </c>
       <c r="L3">
-        <v>1.066662145884557</v>
+        <v>1.043474952320646</v>
       </c>
       <c r="M3">
-        <v>1.075411482645427</v>
+        <v>1.05346162836447</v>
       </c>
       <c r="N3">
-        <v>1.065677580865516</v>
+        <v>1.041611079969753</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060479212380983</v>
+        <v>1.024785019373802</v>
       </c>
       <c r="D4">
-        <v>1.060989010158819</v>
+        <v>1.03937302939391</v>
       </c>
       <c r="E4">
-        <v>1.064886973367005</v>
+        <v>1.036694750380846</v>
       </c>
       <c r="F4">
-        <v>1.073690384689394</v>
+        <v>1.047014433079152</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043591198644758</v>
+        <v>1.051422765183423</v>
       </c>
       <c r="J4">
-        <v>1.064895853776201</v>
+        <v>1.043575290072454</v>
       </c>
       <c r="K4">
-        <v>1.063411380511489</v>
+        <v>1.049018391473178</v>
       </c>
       <c r="L4">
-        <v>1.06730001581244</v>
+        <v>1.046369589770525</v>
       </c>
       <c r="M4">
-        <v>1.076082627804968</v>
+        <v>1.05657670976135</v>
       </c>
       <c r="N4">
-        <v>1.066408128033825</v>
+        <v>1.045057286684116</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0608810121141</v>
+        <v>1.026691049502188</v>
       </c>
       <c r="D5">
-        <v>1.061287904445094</v>
+        <v>1.040777684876241</v>
       </c>
       <c r="E5">
-        <v>1.065205955626816</v>
+        <v>1.038123032328009</v>
       </c>
       <c r="F5">
-        <v>1.074022827826936</v>
+        <v>1.048530775886158</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043676450567313</v>
+        <v>1.051929384035474</v>
       </c>
       <c r="J5">
-        <v>1.065202205078096</v>
+        <v>1.044998376368551</v>
       </c>
       <c r="K5">
-        <v>1.063659138957427</v>
+        <v>1.050194758273584</v>
       </c>
       <c r="L5">
-        <v>1.067568024016308</v>
+        <v>1.047568501917151</v>
       </c>
       <c r="M5">
-        <v>1.076364531597515</v>
+        <v>1.057865922452151</v>
       </c>
       <c r="N5">
-        <v>1.066714914389708</v>
+        <v>1.046482393925983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060948462668481</v>
+        <v>1.027009340746758</v>
       </c>
       <c r="D6">
-        <v>1.06133807666938</v>
+        <v>1.041012290198201</v>
       </c>
       <c r="E6">
-        <v>1.065259513431269</v>
+        <v>1.03836172285746</v>
       </c>
       <c r="F6">
-        <v>1.074078640198969</v>
+        <v>1.048784113300064</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043690740149351</v>
+        <v>1.05201381806429</v>
       </c>
       <c r="J6">
-        <v>1.065253623271934</v>
+        <v>1.045235966378713</v>
       </c>
       <c r="K6">
-        <v>1.063700716946521</v>
+        <v>1.050391126202832</v>
       </c>
       <c r="L6">
-        <v>1.06761301491516</v>
+        <v>1.047768774648445</v>
       </c>
       <c r="M6">
-        <v>1.076411850169235</v>
+        <v>1.058081221143153</v>
       </c>
       <c r="N6">
-        <v>1.066766405603278</v>
+        <v>1.046720321341212</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060484582149932</v>
+        <v>1.024810605414977</v>
       </c>
       <c r="D7">
-        <v>1.060993004901867</v>
+        <v>1.039391882384022</v>
       </c>
       <c r="E7">
-        <v>1.064891235673757</v>
+        <v>1.036713911095748</v>
       </c>
       <c r="F7">
-        <v>1.073694827234894</v>
+        <v>1.04703477985202</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043592339433736</v>
+        <v>1.051429577101813</v>
       </c>
       <c r="J7">
-        <v>1.064899948569334</v>
+        <v>1.043594396767485</v>
       </c>
       <c r="K7">
-        <v>1.063414692531155</v>
+        <v>1.049034187736225</v>
       </c>
       <c r="L7">
-        <v>1.06730359754651</v>
+        <v>1.046385679239223</v>
       </c>
       <c r="M7">
-        <v>1.07608639557863</v>
+        <v>1.056594015006918</v>
       </c>
       <c r="N7">
-        <v>1.066412228642034</v>
+        <v>1.045076420512846</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058543659480931</v>
+        <v>1.015357043216335</v>
       </c>
       <c r="D8">
-        <v>1.059548693654761</v>
+        <v>1.032431554183723</v>
       </c>
       <c r="E8">
-        <v>1.063351771935848</v>
+        <v>1.029656739226102</v>
       </c>
       <c r="F8">
-        <v>1.072089618318912</v>
+        <v>1.03953229672378</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043177473258414</v>
+        <v>1.048893356733094</v>
       </c>
       <c r="J8">
-        <v>1.063418790418681</v>
+        <v>1.036528959052322</v>
       </c>
       <c r="K8">
-        <v>1.062215989103834</v>
+        <v>1.043189433277052</v>
       </c>
       <c r="L8">
-        <v>1.066008984024401</v>
+        <v>1.040449434194468</v>
       </c>
       <c r="M8">
-        <v>1.074723955761611</v>
+        <v>1.050202135305419</v>
       </c>
       <c r="N8">
-        <v>1.064928967076916</v>
+        <v>1.03800094906571</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055115659350803</v>
+        <v>0.9975835132335538</v>
       </c>
       <c r="D9">
-        <v>1.056995998177136</v>
+        <v>1.019380663963892</v>
       </c>
       <c r="E9">
-        <v>1.060638395509266</v>
+        <v>1.016508456927035</v>
       </c>
       <c r="F9">
-        <v>1.069257296271171</v>
+        <v>1.025510944632379</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042432897701122</v>
+        <v>1.044036125103743</v>
       </c>
       <c r="J9">
-        <v>1.060797762692059</v>
+        <v>1.02322189340877</v>
       </c>
       <c r="K9">
-        <v>1.060091571883175</v>
+        <v>1.032166938752086</v>
       </c>
       <c r="L9">
-        <v>1.063722640320496</v>
+        <v>1.029339255936156</v>
       </c>
       <c r="M9">
-        <v>1.072315069232444</v>
+        <v>1.038203252875567</v>
       </c>
       <c r="N9">
-        <v>1.062304217190285</v>
+        <v>1.024674985862602</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.052824681635781</v>
+        <v>0.9848513215133038</v>
       </c>
       <c r="D10">
-        <v>1.055288861227694</v>
+        <v>1.010065476127737</v>
       </c>
       <c r="E10">
-        <v>1.058828871258022</v>
+        <v>1.007184969309169</v>
       </c>
       <c r="F10">
-        <v>1.067366358132313</v>
+        <v>1.015535745997307</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041927340497608</v>
+        <v>1.040501366789128</v>
       </c>
       <c r="J10">
-        <v>1.059042730786361</v>
+        <v>1.01367913542658</v>
       </c>
       <c r="K10">
-        <v>1.058666929564215</v>
+        <v>1.024255342750321</v>
       </c>
       <c r="L10">
-        <v>1.062194839933775</v>
+        <v>1.02142569748422</v>
       </c>
       <c r="M10">
-        <v>1.070703508563864</v>
+        <v>1.029630051098794</v>
       </c>
       <c r="N10">
-        <v>1.060546692937977</v>
+        <v>1.015118676069507</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.051831241636216</v>
+        <v>0.9790939266934213</v>
       </c>
       <c r="D11">
-        <v>1.054548338710882</v>
+        <v>1.005863820838564</v>
       </c>
       <c r="E11">
-        <v>1.058045144068712</v>
+        <v>1.002995147431582</v>
       </c>
       <c r="F11">
-        <v>1.066546867648377</v>
+        <v>1.011044503339257</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041706235106997</v>
+        <v>1.038891190188962</v>
       </c>
       <c r="J11">
-        <v>1.05828090273851</v>
+        <v>1.009363048356059</v>
       </c>
       <c r="K11">
-        <v>1.058048015544267</v>
+        <v>1.020675994892277</v>
       </c>
       <c r="L11">
-        <v>1.0615324014878</v>
+        <v>1.017860799843432</v>
       </c>
       <c r="M11">
-        <v>1.070004304105201</v>
+        <v>1.025761099443736</v>
       </c>
       <c r="N11">
-        <v>1.059783783006915</v>
+        <v>1.010796459660284</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.051462011519285</v>
+        <v>0.9769152662835066</v>
       </c>
       <c r="D12">
-        <v>1.05427307309035</v>
+        <v>1.004275704645825</v>
       </c>
       <c r="E12">
-        <v>1.057754000684902</v>
+        <v>1.001413946347284</v>
       </c>
       <c r="F12">
-        <v>1.066242362778148</v>
+        <v>1.009348185419528</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041623775239559</v>
+        <v>1.038280237684637</v>
       </c>
       <c r="J12">
-        <v>1.057997637174559</v>
+        <v>1.007729797048194</v>
       </c>
       <c r="K12">
-        <v>1.057817813752252</v>
+        <v>1.019321444809264</v>
       </c>
       <c r="L12">
-        <v>1.061286205251705</v>
+        <v>1.016514107419898</v>
       </c>
       <c r="M12">
-        <v>1.069744376011139</v>
+        <v>1.024298453973217</v>
       </c>
       <c r="N12">
-        <v>1.059500115173372</v>
+        <v>1.009160888948226</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.05154122280686</v>
+        <v>0.9773844707786586</v>
       </c>
       <c r="D13">
-        <v>1.054332127734403</v>
+        <v>1.004617640295077</v>
       </c>
       <c r="E13">
-        <v>1.057816453442727</v>
+        <v>1.00175428108418</v>
       </c>
       <c r="F13">
-        <v>1.066307685134299</v>
+        <v>1.009713360599657</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041641478186867</v>
+        <v>1.038411886759051</v>
       </c>
       <c r="J13">
-        <v>1.058058411746544</v>
+        <v>1.008081537622983</v>
       </c>
       <c r="K13">
-        <v>1.057867206889708</v>
+        <v>1.019613166564239</v>
       </c>
       <c r="L13">
-        <v>1.061339021436998</v>
+        <v>1.016804027603888</v>
       </c>
       <c r="M13">
-        <v>1.069800141145079</v>
+        <v>1.024613387167776</v>
       </c>
       <c r="N13">
-        <v>1.05956097605222</v>
+        <v>1.009513129034976</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.051800725535552</v>
+        <v>0.9789146773837754</v>
       </c>
       <c r="D14">
-        <v>1.054525589325494</v>
+        <v>1.005733119846886</v>
       </c>
       <c r="E14">
-        <v>1.058021078743066</v>
+        <v>1.002864965367585</v>
       </c>
       <c r="F14">
-        <v>1.066521699441245</v>
+        <v>1.010904871732161</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041699425719966</v>
+        <v>1.038840956637362</v>
       </c>
       <c r="J14">
-        <v>1.05825749383782</v>
+        <v>1.009228671660241</v>
       </c>
       <c r="K14">
-        <v>1.058028993330118</v>
+        <v>1.020564549899766</v>
       </c>
       <c r="L14">
-        <v>1.061512053645963</v>
+        <v>1.017749952358243</v>
       </c>
       <c r="M14">
-        <v>1.069982822723864</v>
+        <v>1.025640730263111</v>
       </c>
       <c r="N14">
-        <v>1.059760340862901</v>
+        <v>1.010661892134145</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.051960584062663</v>
+        <v>0.9798520642141725</v>
       </c>
       <c r="D15">
-        <v>1.054644760428203</v>
+        <v>1.006416698671269</v>
       </c>
       <c r="E15">
-        <v>1.058147150771468</v>
+        <v>1.003545930107857</v>
       </c>
       <c r="F15">
-        <v>1.066653546068291</v>
+        <v>1.011635209788463</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041735085135497</v>
+        <v>1.039103587667276</v>
       </c>
       <c r="J15">
-        <v>1.058380116474997</v>
+        <v>1.009931397507162</v>
       </c>
       <c r="K15">
-        <v>1.058128634157572</v>
+        <v>1.021147350713429</v>
       </c>
       <c r="L15">
-        <v>1.061618646235102</v>
+        <v>1.018329726151682</v>
       </c>
       <c r="M15">
-        <v>1.070095350608573</v>
+        <v>1.026270261312032</v>
       </c>
       <c r="N15">
-        <v>1.059883137638288</v>
+        <v>1.011365615932372</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.052890582202707</v>
+        <v>0.9852279930157787</v>
       </c>
       <c r="D16">
-        <v>1.055337979085674</v>
+        <v>1.010340604251073</v>
       </c>
       <c r="E16">
-        <v>1.058880880324822</v>
+        <v>1.007459653672679</v>
       </c>
       <c r="F16">
-        <v>1.067420729874706</v>
+        <v>1.015830007588399</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041941968136167</v>
+        <v>1.040606477247553</v>
       </c>
       <c r="J16">
-        <v>1.059093250598958</v>
+        <v>1.013961503258864</v>
       </c>
       <c r="K16">
-        <v>1.05870796165195</v>
+        <v>1.024489495699907</v>
       </c>
       <c r="L16">
-        <v>1.062238784745098</v>
+        <v>1.021659229489513</v>
       </c>
       <c r="M16">
-        <v>1.070749882885175</v>
+        <v>1.029883353734695</v>
       </c>
       <c r="N16">
-        <v>1.060597284494502</v>
+        <v>1.015401444896502</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053473557136281</v>
+        <v>0.9885324969902812</v>
       </c>
       <c r="D17">
-        <v>1.055772460273075</v>
+        <v>1.012755500548382</v>
       </c>
       <c r="E17">
-        <v>1.059341075838753</v>
+        <v>1.009872426669412</v>
       </c>
       <c r="F17">
-        <v>1.067901773175556</v>
+        <v>1.018413765930463</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042071151384358</v>
+        <v>1.041527284900732</v>
       </c>
       <c r="J17">
-        <v>1.059540071819767</v>
+        <v>1.01643860062169</v>
       </c>
       <c r="K17">
-        <v>1.059070811040564</v>
+        <v>1.026543515857507</v>
       </c>
       <c r="L17">
-        <v>1.062627540455301</v>
+        <v>1.023709542754417</v>
       </c>
       <c r="M17">
-        <v>1.071160079332349</v>
+        <v>1.032106458565202</v>
       </c>
       <c r="N17">
-        <v>1.061044740252695</v>
+        <v>1.01788206002171</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.05381345891897</v>
+        <v>0.9904366412215665</v>
       </c>
       <c r="D18">
-        <v>1.056025758627349</v>
+        <v>1.014148008018102</v>
       </c>
       <c r="E18">
-        <v>1.05960948188071</v>
+        <v>1.011265169015352</v>
       </c>
       <c r="F18">
-        <v>1.068182290166483</v>
+        <v>1.019904405976971</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042146290034281</v>
+        <v>1.042056762280993</v>
       </c>
       <c r="J18">
-        <v>1.059800513294791</v>
+        <v>1.017865873621641</v>
       </c>
       <c r="K18">
-        <v>1.059282258916903</v>
+        <v>1.02772691681847</v>
       </c>
       <c r="L18">
-        <v>1.062854209357822</v>
+        <v>1.024892243427733</v>
       </c>
       <c r="M18">
-        <v>1.071399206317653</v>
+        <v>1.033388186193164</v>
       </c>
       <c r="N18">
-        <v>1.061305551584487</v>
+        <v>1.019311359913031</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.05392933351483</v>
+        <v>0.9910820469026418</v>
       </c>
       <c r="D19">
-        <v>1.056112105373912</v>
+        <v>1.014620154802526</v>
       </c>
       <c r="E19">
-        <v>1.059700998419555</v>
+        <v>1.011737640145867</v>
       </c>
       <c r="F19">
-        <v>1.068277927899877</v>
+        <v>1.020409953968934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042171874502868</v>
+        <v>1.042236034536618</v>
       </c>
       <c r="J19">
-        <v>1.059889286427446</v>
+        <v>1.018349624346093</v>
       </c>
       <c r="K19">
-        <v>1.059354324045322</v>
+        <v>1.028127992327986</v>
       </c>
       <c r="L19">
-        <v>1.062931483153543</v>
+        <v>1.025293322749214</v>
       </c>
       <c r="M19">
-        <v>1.071480719885409</v>
+        <v>1.033822739666745</v>
       </c>
       <c r="N19">
-        <v>1.061394450785173</v>
+        <v>1.019795797618999</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053411023731414</v>
+        <v>0.9881803900509671</v>
       </c>
       <c r="D20">
-        <v>1.05572585773754</v>
+        <v>1.012498081156049</v>
       </c>
       <c r="E20">
-        <v>1.059291703124812</v>
+        <v>1.009615081327677</v>
       </c>
       <c r="F20">
-        <v>1.067850168786742</v>
+        <v>1.018138267117228</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042057313158595</v>
+        <v>1.041429284691709</v>
       </c>
       <c r="J20">
-        <v>1.059492150971294</v>
+        <v>1.016174666020766</v>
       </c>
       <c r="K20">
-        <v>1.059031901040189</v>
+        <v>1.026324670085151</v>
       </c>
       <c r="L20">
-        <v>1.062585839537612</v>
+        <v>1.023490942192581</v>
       </c>
       <c r="M20">
-        <v>1.071116082989243</v>
+        <v>1.031869502765335</v>
       </c>
       <c r="N20">
-        <v>1.060996751351122</v>
+        <v>1.017617750603379</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051724314643589</v>
+        <v>0.9784652063977031</v>
       </c>
       <c r="D21">
-        <v>1.054468625334487</v>
+        <v>1.005405415063075</v>
       </c>
       <c r="E21">
-        <v>1.057960822609483</v>
+        <v>1.002538601340316</v>
       </c>
       <c r="F21">
-        <v>1.066458680621693</v>
+        <v>1.010554795654083</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041682370779077</v>
+        <v>1.038714969082129</v>
       </c>
       <c r="J21">
-        <v>1.058198877134834</v>
+        <v>1.008891720143793</v>
       </c>
       <c r="K21">
-        <v>1.057981359832947</v>
+        <v>1.02028509877175</v>
       </c>
       <c r="L21">
-        <v>1.061461103784208</v>
+        <v>1.017472038222398</v>
       </c>
       <c r="M21">
-        <v>1.069929033447477</v>
+        <v>1.025338925790456</v>
       </c>
       <c r="N21">
-        <v>1.059701640917473</v>
+        <v>1.010324462107895</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.050662524124087</v>
+        <v>0.9721228139460363</v>
       </c>
       <c r="D22">
-        <v>1.053676979256915</v>
+        <v>1.000785965773086</v>
       </c>
       <c r="E22">
-        <v>1.057123857107611</v>
+        <v>0.9979440305141081</v>
       </c>
       <c r="F22">
-        <v>1.065583160484111</v>
+        <v>1.005623040964975</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041444710983716</v>
+        <v>1.036933428976194</v>
       </c>
       <c r="J22">
-        <v>1.057384071622688</v>
+        <v>1.004137270808087</v>
       </c>
       <c r="K22">
-        <v>1.057319049860723</v>
+        <v>1.016341868591101</v>
       </c>
       <c r="L22">
-        <v>1.060753142907731</v>
+        <v>1.013556326885064</v>
       </c>
       <c r="M22">
-        <v>1.0691814573105</v>
+        <v>1.021083921316404</v>
       </c>
       <c r="N22">
-        <v>1.058885678288041</v>
+        <v>1.005563260908789</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.051225524017569</v>
+        <v>0.9755084793915633</v>
       </c>
       <c r="D23">
-        <v>1.054096758503597</v>
+        <v>1.003250789347247</v>
       </c>
       <c r="E23">
-        <v>1.05756756735255</v>
+        <v>1.000394196202615</v>
       </c>
       <c r="F23">
-        <v>1.066047351990863</v>
+        <v>1.008253799099665</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04157088133585</v>
+        <v>1.037885291818813</v>
       </c>
       <c r="J23">
-        <v>1.057816175728172</v>
+        <v>1.006675207197417</v>
       </c>
       <c r="K23">
-        <v>1.057670324176922</v>
+        <v>1.018446795975116</v>
       </c>
       <c r="L23">
-        <v>1.061128522804863</v>
+        <v>1.015645217495783</v>
       </c>
       <c r="M23">
-        <v>1.069577879551536</v>
+        <v>1.023354435367414</v>
       </c>
       <c r="N23">
-        <v>1.059318396030917</v>
+        <v>1.008104801458898</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053439280310976</v>
+        <v>0.9883395638246717</v>
       </c>
       <c r="D24">
-        <v>1.055746915810678</v>
+        <v>1.012614447370247</v>
       </c>
       <c r="E24">
-        <v>1.059314012585714</v>
+        <v>1.009731409543609</v>
       </c>
       <c r="F24">
-        <v>1.067873486797514</v>
+        <v>1.018262803756823</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0420635667116</v>
+        <v>1.041473590230929</v>
       </c>
       <c r="J24">
-        <v>1.059513804902011</v>
+        <v>1.016293980841888</v>
       </c>
       <c r="K24">
-        <v>1.059049483400524</v>
+        <v>1.026423602273132</v>
       </c>
       <c r="L24">
-        <v>1.062604682652553</v>
+        <v>1.02358975907721</v>
       </c>
       <c r="M24">
-        <v>1.071135963456246</v>
+        <v>1.03197661901086</v>
       </c>
       <c r="N24">
-        <v>1.061018436032904</v>
+        <v>1.017737234865232</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056002847242139</v>
+        <v>1.002323390998655</v>
       </c>
       <c r="D25">
-        <v>1.057656857092126</v>
+        <v>1.022856084847336</v>
       </c>
       <c r="E25">
-        <v>1.061339962504402</v>
+        <v>1.019999675993088</v>
       </c>
       <c r="F25">
-        <v>1.06998998398028</v>
+        <v>1.029239327757699</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042626999483657</v>
+        <v>1.045341268489284</v>
       </c>
       <c r="J25">
-        <v>1.061476695779637</v>
+        <v>1.026772815964167</v>
       </c>
       <c r="K25">
-        <v>1.060642244441676</v>
+        <v>1.035109655948953</v>
       </c>
       <c r="L25">
-        <v>1.06431433241251</v>
+        <v>1.032295257868866</v>
       </c>
       <c r="M25">
-        <v>1.07293880322626</v>
+        <v>1.041400084939594</v>
       </c>
       <c r="N25">
-        <v>1.062984114440723</v>
+        <v>1.028230951135324</v>
       </c>
     </row>
   </sheetData>
